--- a/Codelist Excel Files and Conversion Templates to XML/astmD2487.xlsx
+++ b/Codelist Excel Files and Conversion Templates to XML/astmD2487.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dponti/GitHub/def/Codelist Excel Files and Conversion Templates to XML/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BF89A86-6FFD-E142-A522-C36BD52076BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6537254-1B68-1341-B628-DBC01EA8774A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="520" windowWidth="35840" windowHeight="20740" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -884,9 +884,6 @@
     <t>//diggs:Lithology/diggs:classificationCode</t>
   </si>
   <si>
-    <t>DIGGS Soil Classification Codelist Definitions (ASTM D2487)</t>
-  </si>
-  <si>
     <t>Soil classification codes as defined by ASTM-D2487. These codes are used as values for the classificationCode property of the Lithology object.</t>
   </si>
   <si>
@@ -1662,6 +1659,9 @@
   </si>
   <si>
     <t>astmD2487</t>
+  </si>
+  <si>
+    <t>DIGGS Soil Classification Definitions (ASTM D2487)</t>
   </si>
 </sst>
 </file>
@@ -2430,7 +2430,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2473,13 +2473,13 @@
         <v>233</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>537</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>281</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>282</v>
       </c>
     </row>
   </sheetData>
@@ -2551,7 +2551,7 @@
         <v>235</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="E2" s="15" t="s">
         <v>4</v>
@@ -2575,7 +2575,7 @@
         <v>237</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="E3" s="15" t="s">
         <v>4</v>
@@ -2599,7 +2599,7 @@
         <v>239</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="E4" s="15" t="s">
         <v>4</v>
@@ -2623,7 +2623,7 @@
         <v>241</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="E5" s="15" t="s">
         <v>4</v>
@@ -2647,7 +2647,7 @@
         <v>243</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="E6" s="15" t="s">
         <v>4</v>
@@ -2671,7 +2671,7 @@
         <v>245</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="E7" s="15" t="s">
         <v>4</v>
@@ -2692,10 +2692,10 @@
         <v>246</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E8" s="15" t="s">
         <v>4</v>
@@ -2716,10 +2716,10 @@
         <v>247</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E9" s="15" t="s">
         <v>4</v>
@@ -2740,10 +2740,10 @@
         <v>248</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E10" s="15" t="s">
         <v>4</v>
@@ -2767,7 +2767,7 @@
         <v>250</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E11" s="15" t="s">
         <v>4</v>
@@ -2791,7 +2791,7 @@
         <v>252</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E12" s="15" t="s">
         <v>4</v>
@@ -2815,7 +2815,7 @@
         <v>254</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E13" s="15" t="s">
         <v>4</v>
@@ -2839,7 +2839,7 @@
         <v>256</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="E14" s="15" t="s">
         <v>4</v>
@@ -2863,7 +2863,7 @@
         <v>258</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="E15" s="15" t="s">
         <v>4</v>
@@ -2887,7 +2887,7 @@
         <v>260</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E16" s="15" t="s">
         <v>4</v>
@@ -2911,7 +2911,7 @@
         <v>260</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E17" s="15" t="s">
         <v>4</v>
@@ -2935,7 +2935,7 @@
         <v>277</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E18" s="15" t="s">
         <v>4</v>
@@ -2959,7 +2959,7 @@
         <v>263</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="E19" s="15" t="s">
         <v>4</v>
@@ -2983,7 +2983,7 @@
         <v>265</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="E20" s="15" t="s">
         <v>4</v>
@@ -3007,7 +3007,7 @@
         <v>267</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E21" s="15" t="s">
         <v>4</v>
@@ -3028,10 +3028,10 @@
         <v>268</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E22" s="15" t="s">
         <v>4</v>
@@ -3052,10 +3052,10 @@
         <v>269</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E23" s="15" t="s">
         <v>4</v>
@@ -3076,10 +3076,10 @@
         <v>270</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D24" s="13" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E24" s="15" t="s">
         <v>4</v>
@@ -3103,7 +3103,7 @@
         <v>272</v>
       </c>
       <c r="D25" s="13" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E25" s="15" t="s">
         <v>4</v>
@@ -3124,10 +3124,10 @@
         <v>273</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D26" s="13" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E26" s="15" t="s">
         <v>4</v>
@@ -3151,7 +3151,7 @@
         <v>275</v>
       </c>
       <c r="D27" s="13" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E27" s="15" t="s">
         <v>4</v>
@@ -3169,13 +3169,13 @@
         <v/>
       </c>
       <c r="B28" s="13" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D28" s="13" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E28" s="15" t="s">
         <v>4</v>
@@ -3193,13 +3193,13 @@
         <v/>
       </c>
       <c r="B29" s="13" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E29" s="15" t="s">
         <v>4</v>
@@ -3217,13 +3217,13 @@
         <v/>
       </c>
       <c r="B30" s="13" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E30" s="15" t="s">
         <v>4</v>
@@ -3241,13 +3241,13 @@
         <v/>
       </c>
       <c r="B31" s="13" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D31" s="13" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E31" s="15" t="s">
         <v>4</v>
@@ -3265,13 +3265,13 @@
         <v/>
       </c>
       <c r="B32" s="13" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D32" s="13" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E32" s="15" t="s">
         <v>4</v>
@@ -3289,13 +3289,13 @@
         <v/>
       </c>
       <c r="B33" s="13" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D33" s="13" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E33" s="15" t="s">
         <v>4</v>
@@ -3313,13 +3313,13 @@
         <v/>
       </c>
       <c r="B34" s="13" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D34" s="13" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E34" s="15" t="s">
         <v>4</v>
@@ -3337,13 +3337,13 @@
         <v/>
       </c>
       <c r="B35" s="13" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D35" s="13" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E35" s="15" t="s">
         <v>4</v>
@@ -3361,13 +3361,13 @@
         <v/>
       </c>
       <c r="B36" s="13" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E36" s="15" t="s">
         <v>4</v>
@@ -3385,13 +3385,13 @@
         <v/>
       </c>
       <c r="B37" s="13" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D37" s="13" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E37" s="15" t="s">
         <v>4</v>
@@ -3409,13 +3409,13 @@
         <v/>
       </c>
       <c r="B38" s="13" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D38" s="13" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E38" s="15" t="s">
         <v>4</v>
@@ -3433,13 +3433,13 @@
         <v/>
       </c>
       <c r="B39" s="13" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D39" s="13" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E39" s="15" t="s">
         <v>4</v>
@@ -3457,13 +3457,13 @@
         <v/>
       </c>
       <c r="B40" s="13" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C40" s="13" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D40" s="13" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E40" s="15" t="s">
         <v>4</v>
@@ -3481,13 +3481,13 @@
         <v/>
       </c>
       <c r="B41" s="13" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C41" s="13" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D41" s="13" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E41" s="15" t="s">
         <v>4</v>
@@ -3505,13 +3505,13 @@
         <v/>
       </c>
       <c r="B42" s="13" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D42" s="13" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E42" s="15" t="s">
         <v>4</v>
@@ -3529,13 +3529,13 @@
         <v/>
       </c>
       <c r="B43" s="13" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C43" s="13" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D43" s="13" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E43" s="15" t="s">
         <v>4</v>
@@ -3553,13 +3553,13 @@
         <v/>
       </c>
       <c r="B44" s="13" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C44" s="13" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D44" s="13" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E44" s="15" t="s">
         <v>4</v>
@@ -3577,13 +3577,13 @@
         <v/>
       </c>
       <c r="B45" s="13" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C45" s="13" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D45" s="13" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E45" s="15" t="s">
         <v>4</v>
@@ -3601,13 +3601,13 @@
         <v/>
       </c>
       <c r="B46" s="13" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C46" s="13" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D46" s="13" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E46" s="15" t="s">
         <v>4</v>
@@ -3625,13 +3625,13 @@
         <v/>
       </c>
       <c r="B47" s="13" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C47" s="13" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D47" s="13" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E47" s="15" t="s">
         <v>4</v>
@@ -3649,13 +3649,13 @@
         <v/>
       </c>
       <c r="B48" s="13" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C48" s="13" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D48" s="13" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E48" s="15" t="s">
         <v>4</v>
@@ -3673,13 +3673,13 @@
         <v/>
       </c>
       <c r="B49" s="13" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C49" s="13" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D49" s="13" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E49" s="15" t="s">
         <v>4</v>
@@ -3697,13 +3697,13 @@
         <v/>
       </c>
       <c r="B50" s="13" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C50" s="13" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D50" s="13" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E50" s="15" t="s">
         <v>4</v>
@@ -3721,13 +3721,13 @@
         <v/>
       </c>
       <c r="B51" s="13" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C51" s="13" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D51" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E51" s="15" t="s">
         <v>4</v>
@@ -3745,13 +3745,13 @@
         <v/>
       </c>
       <c r="B52" s="13" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C52" s="13" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D52" s="13" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E52" s="15" t="s">
         <v>4</v>
@@ -3769,13 +3769,13 @@
         <v/>
       </c>
       <c r="B53" s="13" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C53" s="13" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D53" s="13" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E53" s="15" t="s">
         <v>4</v>
@@ -3793,13 +3793,13 @@
         <v/>
       </c>
       <c r="B54" s="13" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C54" s="13" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D54" s="13" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E54" s="15" t="s">
         <v>4</v>
@@ -3817,13 +3817,13 @@
         <v/>
       </c>
       <c r="B55" s="13" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C55" s="13" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D55" s="13" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E55" s="15" t="s">
         <v>4</v>
@@ -3841,13 +3841,13 @@
         <v/>
       </c>
       <c r="B56" s="13" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C56" s="13" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D56" s="13" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E56" s="15" t="s">
         <v>4</v>
@@ -3865,13 +3865,13 @@
         <v/>
       </c>
       <c r="B57" s="13" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C57" s="13" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D57" s="13" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E57" s="15" t="s">
         <v>4</v>
@@ -3889,13 +3889,13 @@
         <v/>
       </c>
       <c r="B58" s="13" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C58" s="13" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D58" s="13" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E58" s="15" t="s">
         <v>4</v>
@@ -3913,13 +3913,13 @@
         <v/>
       </c>
       <c r="B59" s="13" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C59" s="13" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D59" s="13" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E59" s="15" t="s">
         <v>4</v>
@@ -3937,13 +3937,13 @@
         <v/>
       </c>
       <c r="B60" s="13" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C60" s="13" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D60" s="13" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E60" s="15" t="s">
         <v>4</v>
@@ -3961,13 +3961,13 @@
         <v/>
       </c>
       <c r="B61" s="13" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C61" s="13" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D61" s="13" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E61" s="15" t="s">
         <v>4</v>
@@ -3985,13 +3985,13 @@
         <v/>
       </c>
       <c r="B62" s="13" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C62" s="13" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D62" s="13" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E62" s="15" t="s">
         <v>4</v>
@@ -4009,13 +4009,13 @@
         <v/>
       </c>
       <c r="B63" s="13" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C63" s="13" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D63" s="13" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E63" s="15" t="s">
         <v>4</v>
@@ -4033,13 +4033,13 @@
         <v/>
       </c>
       <c r="B64" s="13" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C64" s="13" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D64" s="13" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E64" s="15" t="s">
         <v>4</v>
@@ -4057,13 +4057,13 @@
         <v/>
       </c>
       <c r="B65" s="13" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C65" s="13" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D65" s="13" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E65" s="15" t="s">
         <v>4</v>
@@ -4081,13 +4081,13 @@
         <v/>
       </c>
       <c r="B66" s="13" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C66" s="13" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D66" s="13" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E66" s="15" t="s">
         <v>4</v>
@@ -4105,13 +4105,13 @@
         <v/>
       </c>
       <c r="B67" s="13" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C67" s="13" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D67" s="13" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E67" s="15" t="s">
         <v>4</v>
@@ -4129,13 +4129,13 @@
         <v/>
       </c>
       <c r="B68" s="13" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C68" s="13" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D68" s="13" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E68" s="15" t="s">
         <v>4</v>
@@ -4153,13 +4153,13 @@
         <v/>
       </c>
       <c r="B69" s="13" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C69" s="13" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D69" s="13" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E69" s="15" t="s">
         <v>4</v>
@@ -4177,13 +4177,13 @@
         <v/>
       </c>
       <c r="B70" s="13" t="s">
+        <v>324</v>
+      </c>
+      <c r="C70" s="13" t="s">
         <v>325</v>
       </c>
-      <c r="C70" s="13" t="s">
-        <v>326</v>
-      </c>
       <c r="D70" s="13" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E70" s="15" t="s">
         <v>4</v>
@@ -4201,13 +4201,13 @@
         <v/>
       </c>
       <c r="B71" s="13" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C71" s="13" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D71" s="13" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E71" s="15" t="s">
         <v>4</v>
@@ -4225,13 +4225,13 @@
         <v/>
       </c>
       <c r="B72" s="13" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C72" s="13" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D72" s="13" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E72" s="15" t="s">
         <v>4</v>
@@ -4249,13 +4249,13 @@
         <v/>
       </c>
       <c r="B73" s="13" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C73" s="13" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D73" s="13" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E73" s="15" t="s">
         <v>4</v>
@@ -4273,13 +4273,13 @@
         <v/>
       </c>
       <c r="B74" s="13" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C74" s="13" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D74" s="13" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E74" s="15" t="s">
         <v>4</v>
@@ -4297,13 +4297,13 @@
         <v/>
       </c>
       <c r="B75" s="13" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C75" s="13" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D75" s="13" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E75" s="15" t="s">
         <v>4</v>
@@ -4321,13 +4321,13 @@
         <v/>
       </c>
       <c r="B76" s="13" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C76" s="13" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D76" s="13" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E76" s="15" t="s">
         <v>4</v>
@@ -4345,13 +4345,13 @@
         <v/>
       </c>
       <c r="B77" s="13" t="s">
+        <v>332</v>
+      </c>
+      <c r="C77" s="13" t="s">
         <v>333</v>
       </c>
-      <c r="C77" s="13" t="s">
-        <v>334</v>
-      </c>
       <c r="D77" s="13" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E77" s="15" t="s">
         <v>4</v>
@@ -4369,13 +4369,13 @@
         <v/>
       </c>
       <c r="B78" s="13" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C78" s="13" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D78" s="13" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E78" s="15" t="s">
         <v>4</v>
@@ -4393,13 +4393,13 @@
         <v/>
       </c>
       <c r="B79" s="13" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C79" s="13" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D79" s="13" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E79" s="15" t="s">
         <v>4</v>
@@ -4417,13 +4417,13 @@
         <v/>
       </c>
       <c r="B80" s="13" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C80" s="13" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D80" s="13" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E80" s="15" t="s">
         <v>4</v>
@@ -4441,13 +4441,13 @@
         <v/>
       </c>
       <c r="B81" s="13" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C81" s="13" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D81" s="13" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E81" s="15" t="s">
         <v>4</v>
@@ -4465,13 +4465,13 @@
         <v/>
       </c>
       <c r="B82" s="13" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C82" s="13" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D82" s="13" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E82" s="15" t="s">
         <v>4</v>
@@ -4489,13 +4489,13 @@
         <v/>
       </c>
       <c r="B83" s="13" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C83" s="13" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D83" s="13" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E83" s="15" t="s">
         <v>4</v>
@@ -4513,13 +4513,13 @@
         <v/>
       </c>
       <c r="B84" s="13" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C84" s="13" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D84" s="13" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E84" s="15" t="s">
         <v>4</v>
@@ -4537,13 +4537,13 @@
         <v/>
       </c>
       <c r="B85" s="13" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C85" s="13" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D85" s="13" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E85" s="15" t="s">
         <v>4</v>
@@ -4561,13 +4561,13 @@
         <v/>
       </c>
       <c r="B86" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C86" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D86" s="16" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E86" s="15" t="s">
         <v>4</v>
@@ -4585,13 +4585,13 @@
         <v/>
       </c>
       <c r="B87" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C87" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D87" s="13" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E87" s="15" t="s">
         <v>4</v>
@@ -4609,13 +4609,13 @@
         <v/>
       </c>
       <c r="B88" s="13" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C88" s="13" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D88" s="16" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E88" s="15" t="s">
         <v>4</v>
@@ -4633,13 +4633,13 @@
         <v/>
       </c>
       <c r="B89" s="13" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C89" s="13" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D89" s="16" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E89" s="15" t="s">
         <v>4</v>
@@ -4657,13 +4657,13 @@
         <v/>
       </c>
       <c r="B90" s="13" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C90" s="13" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D90" s="13" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E90" s="15" t="s">
         <v>4</v>
@@ -4681,13 +4681,13 @@
         <v/>
       </c>
       <c r="B91" s="13" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C91" s="13" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D91" s="16" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E91" s="15" t="s">
         <v>4</v>
@@ -4705,13 +4705,13 @@
         <v/>
       </c>
       <c r="B92" s="13" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C92" s="13" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D92" s="16" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E92" s="15" t="s">
         <v>4</v>
@@ -4729,13 +4729,13 @@
         <v/>
       </c>
       <c r="B93" s="13" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C93" s="13" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D93" s="13" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E93" s="15" t="s">
         <v>4</v>
@@ -4753,13 +4753,13 @@
         <v/>
       </c>
       <c r="B94" s="13" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C94" s="13" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D94" s="13" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E94" s="15" t="s">
         <v>4</v>
@@ -4777,13 +4777,13 @@
         <v/>
       </c>
       <c r="B95" s="13" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C95" s="13" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D95" s="17" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E95" s="15" t="s">
         <v>4</v>
@@ -4801,13 +4801,13 @@
         <v/>
       </c>
       <c r="B96" s="13" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C96" s="13" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D96" s="17" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E96" s="15" t="s">
         <v>4</v>
@@ -4825,13 +4825,13 @@
         <v/>
       </c>
       <c r="B97" s="13" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C97" s="13" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D97" s="17" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E97" s="15" t="s">
         <v>4</v>
@@ -4849,13 +4849,13 @@
         <v/>
       </c>
       <c r="B98" s="13" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C98" s="13" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D98" s="17" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E98" s="15" t="s">
         <v>4</v>
@@ -4873,13 +4873,13 @@
         <v/>
       </c>
       <c r="B99" s="13" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C99" s="13" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D99" s="17" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E99" s="15" t="s">
         <v>4</v>
@@ -4897,13 +4897,13 @@
         <v/>
       </c>
       <c r="B100" s="13" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C100" s="13" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D100" s="17" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E100" s="15" t="s">
         <v>4</v>
@@ -4921,13 +4921,13 @@
         <v/>
       </c>
       <c r="B101" s="13" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C101" s="13" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D101" s="17" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E101" s="15" t="s">
         <v>4</v>
@@ -5317,7 +5317,7 @@
         <v/>
       </c>
       <c r="B28" s="18" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>280</v>
@@ -5329,7 +5329,7 @@
         <v/>
       </c>
       <c r="B29" s="18" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>280</v>
@@ -5341,7 +5341,7 @@
         <v/>
       </c>
       <c r="B30" s="18" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>280</v>
@@ -5353,7 +5353,7 @@
         <v/>
       </c>
       <c r="B31" s="18" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>280</v>
@@ -5365,7 +5365,7 @@
         <v/>
       </c>
       <c r="B32" s="18" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>280</v>
@@ -5377,7 +5377,7 @@
         <v/>
       </c>
       <c r="B33" s="18" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>280</v>
@@ -5389,7 +5389,7 @@
         <v/>
       </c>
       <c r="B34" s="18" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>280</v>
@@ -5401,7 +5401,7 @@
         <v/>
       </c>
       <c r="B35" s="18" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>280</v>
@@ -5413,7 +5413,7 @@
         <v/>
       </c>
       <c r="B36" s="18" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>280</v>
@@ -5425,7 +5425,7 @@
         <v/>
       </c>
       <c r="B37" s="18" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>280</v>
@@ -5437,7 +5437,7 @@
         <v/>
       </c>
       <c r="B38" s="18" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>280</v>
@@ -5449,7 +5449,7 @@
         <v/>
       </c>
       <c r="B39" s="18" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>280</v>
@@ -5461,7 +5461,7 @@
         <v/>
       </c>
       <c r="B40" s="18" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>280</v>
@@ -5473,7 +5473,7 @@
         <v/>
       </c>
       <c r="B41" s="18" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>280</v>
@@ -5485,7 +5485,7 @@
         <v/>
       </c>
       <c r="B42" s="18" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>280</v>
@@ -5497,7 +5497,7 @@
         <v/>
       </c>
       <c r="B43" s="18" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>280</v>
@@ -5509,7 +5509,7 @@
         <v/>
       </c>
       <c r="B44" s="18" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>280</v>
@@ -5521,7 +5521,7 @@
         <v/>
       </c>
       <c r="B45" s="18" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>280</v>
@@ -5533,7 +5533,7 @@
         <v/>
       </c>
       <c r="B46" s="18" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>280</v>
@@ -5545,7 +5545,7 @@
         <v/>
       </c>
       <c r="B47" s="18" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>280</v>
@@ -5557,7 +5557,7 @@
         <v/>
       </c>
       <c r="B48" s="18" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>280</v>
@@ -5569,7 +5569,7 @@
         <v/>
       </c>
       <c r="B49" s="18" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>280</v>
@@ -5581,7 +5581,7 @@
         <v/>
       </c>
       <c r="B50" s="18" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>280</v>
@@ -5593,7 +5593,7 @@
         <v/>
       </c>
       <c r="B51" s="18" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>280</v>
@@ -5605,7 +5605,7 @@
         <v/>
       </c>
       <c r="B52" s="18" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>280</v>
@@ -5617,7 +5617,7 @@
         <v/>
       </c>
       <c r="B53" s="18" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>280</v>
@@ -5629,7 +5629,7 @@
         <v/>
       </c>
       <c r="B54" s="18" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>280</v>
@@ -5641,7 +5641,7 @@
         <v/>
       </c>
       <c r="B55" s="18" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>280</v>
@@ -5653,7 +5653,7 @@
         <v/>
       </c>
       <c r="B56" s="18" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C56" s="4" t="s">
         <v>280</v>
@@ -5665,7 +5665,7 @@
         <v/>
       </c>
       <c r="B57" s="18" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>280</v>
@@ -5677,7 +5677,7 @@
         <v/>
       </c>
       <c r="B58" s="18" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>280</v>
@@ -5689,7 +5689,7 @@
         <v/>
       </c>
       <c r="B59" s="18" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>280</v>
@@ -5701,7 +5701,7 @@
         <v/>
       </c>
       <c r="B60" s="18" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C60" s="4" t="s">
         <v>280</v>
@@ -5713,7 +5713,7 @@
         <v/>
       </c>
       <c r="B61" s="18" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C61" s="4" t="s">
         <v>280</v>
@@ -5725,7 +5725,7 @@
         <v/>
       </c>
       <c r="B62" s="18" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C62" s="4" t="s">
         <v>280</v>
@@ -5737,7 +5737,7 @@
         <v/>
       </c>
       <c r="B63" s="18" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>280</v>
@@ -5749,7 +5749,7 @@
         <v/>
       </c>
       <c r="B64" s="18" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>280</v>
@@ -5761,7 +5761,7 @@
         <v/>
       </c>
       <c r="B65" s="18" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C65" s="4" t="s">
         <v>280</v>
@@ -5773,7 +5773,7 @@
         <v/>
       </c>
       <c r="B66" s="18" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C66" s="4" t="s">
         <v>280</v>
@@ -5785,7 +5785,7 @@
         <v/>
       </c>
       <c r="B67" s="18" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C67" s="4" t="s">
         <v>280</v>
@@ -5797,7 +5797,7 @@
         <v/>
       </c>
       <c r="B68" s="18" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C68" s="4" t="s">
         <v>280</v>
@@ -5809,7 +5809,7 @@
         <v/>
       </c>
       <c r="B69" s="18" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C69" s="4" t="s">
         <v>280</v>
@@ -5821,7 +5821,7 @@
         <v/>
       </c>
       <c r="B70" s="18" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C70" s="4" t="s">
         <v>280</v>
@@ -5833,7 +5833,7 @@
         <v/>
       </c>
       <c r="B71" s="18" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C71" s="4" t="s">
         <v>280</v>
@@ -5845,7 +5845,7 @@
         <v/>
       </c>
       <c r="B72" s="18" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C72" s="4" t="s">
         <v>280</v>
@@ -5857,7 +5857,7 @@
         <v/>
       </c>
       <c r="B73" s="18" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C73" s="4" t="s">
         <v>280</v>
@@ -5869,7 +5869,7 @@
         <v/>
       </c>
       <c r="B74" s="18" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C74" s="4" t="s">
         <v>280</v>
@@ -5881,7 +5881,7 @@
         <v/>
       </c>
       <c r="B75" s="18" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C75" s="4" t="s">
         <v>280</v>
@@ -5893,7 +5893,7 @@
         <v/>
       </c>
       <c r="B76" s="18" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C76" s="4" t="s">
         <v>280</v>
@@ -5905,7 +5905,7 @@
         <v/>
       </c>
       <c r="B77" s="18" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C77" s="4" t="s">
         <v>280</v>
@@ -5917,7 +5917,7 @@
         <v/>
       </c>
       <c r="B78" s="18" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C78" s="4" t="s">
         <v>280</v>
@@ -5929,7 +5929,7 @@
         <v/>
       </c>
       <c r="B79" s="18" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C79" s="4" t="s">
         <v>280</v>
@@ -5941,7 +5941,7 @@
         <v/>
       </c>
       <c r="B80" s="18" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C80" s="4" t="s">
         <v>280</v>
@@ -5953,7 +5953,7 @@
         <v/>
       </c>
       <c r="B81" s="18" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C81" s="4" t="s">
         <v>280</v>
@@ -5965,7 +5965,7 @@
         <v/>
       </c>
       <c r="B82" s="18" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C82" s="4" t="s">
         <v>280</v>
@@ -5977,7 +5977,7 @@
         <v/>
       </c>
       <c r="B83" s="18" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C83" s="4" t="s">
         <v>280</v>
@@ -5989,7 +5989,7 @@
         <v/>
       </c>
       <c r="B84" s="18" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C84" s="4" t="s">
         <v>280</v>
@@ -6001,7 +6001,7 @@
         <v/>
       </c>
       <c r="B85" s="18" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C85" s="4" t="s">
         <v>280</v>
@@ -6013,7 +6013,7 @@
         <v/>
       </c>
       <c r="B86" s="19" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C86" s="4" t="s">
         <v>280</v>
@@ -6025,7 +6025,7 @@
         <v/>
       </c>
       <c r="B87" s="19" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C87" s="4" t="s">
         <v>280</v>
@@ -6037,7 +6037,7 @@
         <v/>
       </c>
       <c r="B88" s="18" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C88" s="4" t="s">
         <v>280</v>
@@ -6049,7 +6049,7 @@
         <v/>
       </c>
       <c r="B89" s="18" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C89" s="4" t="s">
         <v>280</v>
@@ -6061,7 +6061,7 @@
         <v/>
       </c>
       <c r="B90" s="18" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C90" s="4" t="s">
         <v>280</v>
@@ -6073,7 +6073,7 @@
         <v/>
       </c>
       <c r="B91" s="18" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C91" s="4" t="s">
         <v>280</v>
@@ -6085,7 +6085,7 @@
         <v/>
       </c>
       <c r="B92" s="18" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C92" s="4" t="s">
         <v>280</v>
@@ -6097,7 +6097,7 @@
         <v/>
       </c>
       <c r="B93" s="18" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C93" s="4" t="s">
         <v>280</v>
@@ -6109,7 +6109,7 @@
         <v/>
       </c>
       <c r="B94" s="18" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C94" s="4" t="s">
         <v>280</v>
@@ -6121,7 +6121,7 @@
         <v/>
       </c>
       <c r="B95" s="18" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C95" s="4" t="s">
         <v>280</v>
@@ -6133,7 +6133,7 @@
         <v/>
       </c>
       <c r="B96" s="18" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C96" s="4" t="s">
         <v>280</v>
@@ -6145,7 +6145,7 @@
         <v/>
       </c>
       <c r="B97" s="18" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C97" s="4" t="s">
         <v>280</v>
@@ -6157,7 +6157,7 @@
         <v/>
       </c>
       <c r="B98" s="18" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C98" s="4" t="s">
         <v>280</v>
@@ -6169,7 +6169,7 @@
         <v/>
       </c>
       <c r="B99" s="18" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C99" s="4" t="s">
         <v>280</v>
@@ -6181,7 +6181,7 @@
         <v/>
       </c>
       <c r="B100" s="18" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C100" s="4" t="s">
         <v>280</v>
@@ -6193,7 +6193,7 @@
         <v/>
       </c>
       <c r="B101" s="18" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C101" s="4" t="s">
         <v>280</v>
